--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_473__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_473__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,16 +5417,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-2.087859153747559</c:v>
+                  <c:v>-2.087853193283081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.07057094573975</c:v>
+                  <c:v>15.07058334350586</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31.21156120300293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.37314224243164</c:v>
+                  <c:v>55.37313079833984</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>94.57724761962891</c:v>
@@ -5435,196 +5435,196 @@
                   <c:v>85.42615509033203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2956280112266541</c:v>
+                  <c:v>0.2956515550613403</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1275628805160522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.09228515625</c:v>
+                  <c:v>95.09227752685547</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.560457229614258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.1651611328125</c:v>
+                  <c:v>95.16516876220703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.83803391456604</c:v>
+                  <c:v>0.8380221128463745</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.167565941810608</c:v>
+                  <c:v>-1.167571783065796</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.6884765625</c:v>
+                  <c:v>20.68852233886719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.29090881347656</c:v>
+                  <c:v>94.29091644287109</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>83.08654022216797</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.52725219726562</c:v>
+                  <c:v>75.52726745605469</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.64897918701172</c:v>
+                  <c:v>95.64895629882812</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.596913814544678</c:v>
+                  <c:v>-5.596901893615723</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>92.10504913330078</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.58942031860352</c:v>
+                  <c:v>62.58945846557617</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94.43724060058594</c:v>
+                  <c:v>94.43723297119141</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.339148163795471</c:v>
+                  <c:v>-1.339207053184509</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.150267705321312</c:v>
+                  <c:v>-0.150232344865799</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-2.130464553833008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.705152988433838</c:v>
+                  <c:v>-3.705155849456787</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.9325764179229736</c:v>
+                  <c:v>-0.9325351715087891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.7485342621803284</c:v>
+                  <c:v>-0.7485578060150146</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>78.78646087646484</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.565037250518799</c:v>
+                  <c:v>-2.565040111541748</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95.47856140136719</c:v>
+                  <c:v>95.47856903076172</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>94.76091003417969</c:v>
+                  <c:v>94.76091766357422</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.405252069234848</c:v>
+                  <c:v>0.4052285254001617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>91.86348724365234</c:v>
+                  <c:v>91.86349487304688</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.558097362518311</c:v>
+                  <c:v>-2.558126926422119</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>95.85420989990234</c:v>
+                  <c:v>95.85421752929688</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.09087228029966354</c:v>
+                  <c:v>-0.09084871411323547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>83.25991821289062</c:v>
+                  <c:v>83.25989532470703</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69.06040954589844</c:v>
+                  <c:v>69.06043243408203</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>70.40875244140625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>95.71451568603516</c:v>
+                  <c:v>95.71453857421875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.057080745697021</c:v>
+                  <c:v>4.057098388671875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>92.20686340332031</c:v>
+                  <c:v>92.20687103271484</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>98.33563995361328</c:v>
+                  <c:v>98.33563232421875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.256866931915283</c:v>
+                  <c:v>-2.256825685501099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.24459969997406</c:v>
+                  <c:v>-1.244605660438538</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>96.55845642089844</c:v>
+                  <c:v>96.5584716796875</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.194281339645386</c:v>
+                  <c:v>-2.194272518157959</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3052189350128174</c:v>
+                  <c:v>0.3051717877388</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.50726318359375</c:v>
+                  <c:v>94.50724792480469</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>74.62684631347656</c:v>
+                  <c:v>74.62686920166016</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.332404136657715</c:v>
+                  <c:v>-2.332380771636963</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>95.07007598876953</c:v>
+                  <c:v>95.07005310058594</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>86.86884307861328</c:v>
+                  <c:v>86.86883544921875</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>95.40267944335938</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.5331036448478699</c:v>
+                  <c:v>-0.5330800414085388</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>98.51392364501953</c:v>
+                  <c:v>98.51393890380859</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>95.69060516357422</c:v>
+                  <c:v>95.69059753417969</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-1.704298615455627</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>93.07920074462891</c:v>
+                  <c:v>93.07917785644531</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.08995913714170456</c:v>
+                  <c:v>0.08995325118303299</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.043256521224976</c:v>
+                  <c:v>-2.043262481689453</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.183501720428467</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.2899959683418274</c:v>
+                  <c:v>0.2900313138961792</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>97.20644378662109</c:v>
+                  <c:v>97.20643615722656</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.707591772079468</c:v>
+                  <c:v>-1.707579970359802</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>91.35030364990234</c:v>
+                  <c:v>91.35029602050781</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.935399889945984</c:v>
+                  <c:v>-1.935429334640503</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>95.43543243408203</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>98.07766723632812</c:v>
+                  <c:v>98.07767486572266</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>96.26373291015625</c:v>
@@ -5633,58 +5633,58 @@
                   <c:v>92.45915222167969</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>98.00932312011719</c:v>
+                  <c:v>98.00933074951172</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.1206583604216576</c:v>
+                  <c:v>-0.1206230074167252</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>95.7210693359375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>99.53140258789062</c:v>
+                  <c:v>99.53137969970703</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>92.06558990478516</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>93.73722839355469</c:v>
+                  <c:v>93.73724365234375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.524228811264038</c:v>
+                  <c:v>-2.52425217628479</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>67.69181060791016</c:v>
+                  <c:v>67.69179534912109</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>95.70692443847656</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>60.76924133300781</c:v>
+                  <c:v>60.76925277709961</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.1335248053073883</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.2463065981864929</c:v>
+                  <c:v>-0.2463242709636688</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>95.6678466796875</c:v>
+                  <c:v>95.66785430908203</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-3.182326555252075</c:v>
+                  <c:v>-3.182297229766846</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>29.53987693786621</c:v>
+                  <c:v>29.53988075256348</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>95.19735717773438</c:v>
+                  <c:v>95.19734954833984</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.9908583760261536</c:v>
+                  <c:v>0.9908407330513</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>94.90865325927734</c:v>
+                  <c:v>94.90867614746094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.087859153747559</v>
+        <v>-2.087853193283081</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.07057094573975</v>
+        <v>15.07058334350586</v>
       </c>
       <c r="G3">
         <v>115</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37314224243164</v>
+        <v>55.37313079833984</v>
       </c>
       <c r="G5">
         <v>115</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2956280112266541</v>
+        <v>0.2956515550613403</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>95.09228515625</v>
+        <v>95.09227752685547</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>95.1651611328125</v>
+        <v>95.16516876220703</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.83803391456604</v>
+        <v>0.8380221128463745</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-1.167565941810608</v>
+        <v>-1.167571783065796</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>20.6884765625</v>
+        <v>20.68852233886719</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>94.29090881347656</v>
+        <v>94.29091644287109</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>75.52725219726562</v>
+        <v>75.52726745605469</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>95.64897918701172</v>
+        <v>95.64895629882812</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-5.596913814544678</v>
+        <v>-5.596901893615723</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>62.58942031860352</v>
+        <v>62.58945846557617</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>94.43724060058594</v>
+        <v>94.43723297119141</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-1.339148163795471</v>
+        <v>-1.339207053184509</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.150267705321312</v>
+        <v>-0.150232344865799</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-3.705152988433838</v>
+        <v>-3.705155849456787</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.9325764179229736</v>
+        <v>-0.9325351715087891</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.7485342621803284</v>
+        <v>-0.7485578060150146</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-2.565037250518799</v>
+        <v>-2.565040111541748</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>95.47856140136719</v>
+        <v>95.47856903076172</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>94.76091003417969</v>
+        <v>94.76091766357422</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.405252069234848</v>
+        <v>0.4052285254001617</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>91.86348724365234</v>
+        <v>91.86349487304688</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-2.558097362518311</v>
+        <v>-2.558126926422119</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>95.85420989990234</v>
+        <v>95.85421752929688</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.09087228029966354</v>
+        <v>-0.09084871411323547</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>83.25991821289062</v>
+        <v>83.25989532470703</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>69.06040954589844</v>
+        <v>69.06043243408203</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>95.71451568603516</v>
+        <v>95.71453857421875</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>4.057080745697021</v>
+        <v>4.057098388671875</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>92.20686340332031</v>
+        <v>92.20687103271484</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>98.33563995361328</v>
+        <v>98.33563232421875</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-2.256866931915283</v>
+        <v>-2.256825685501099</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-1.24459969997406</v>
+        <v>-1.244605660438538</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>96.55845642089844</v>
+        <v>96.5584716796875</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-2.194281339645386</v>
+        <v>-2.194272518157959</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.3052189350128174</v>
+        <v>0.3051717877388</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>94.50726318359375</v>
+        <v>94.50724792480469</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>74.62684631347656</v>
+        <v>74.62686920166016</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-2.332404136657715</v>
+        <v>-2.332380771636963</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>95.07007598876953</v>
+        <v>95.07005310058594</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>86.86884307861328</v>
+        <v>86.86883544921875</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.5331036448478699</v>
+        <v>-0.5330800414085388</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>98.51392364501953</v>
+        <v>98.51393890380859</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>95.69060516357422</v>
+        <v>95.69059753417969</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>93.07920074462891</v>
+        <v>93.07917785644531</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.08995913714170456</v>
+        <v>0.08995325118303299</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-2.043256521224976</v>
+        <v>-2.043262481689453</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.2899959683418274</v>
+        <v>0.2900313138961792</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.69540000000001</v>
       </c>
       <c r="F66">
-        <v>97.20644378662109</v>
+        <v>97.20643615722656</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-1.707591772079468</v>
+        <v>-1.707579970359802</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>91.35030364990234</v>
+        <v>91.35029602050781</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-1.935399889945984</v>
+        <v>-1.935429334640503</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>98.07766723632812</v>
+        <v>98.07767486572266</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>98.00932312011719</v>
+        <v>98.00933074951172</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.1206583604216576</v>
+        <v>-0.1206230074167252</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>99.53140258789062</v>
+        <v>99.53137969970703</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>93.73722839355469</v>
+        <v>93.73724365234375</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-2.524228811264038</v>
+        <v>-2.52425217628479</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>67.69181060791016</v>
+        <v>67.69179534912109</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>60.76924133300781</v>
+        <v>60.76925277709961</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.2463065981864929</v>
+        <v>-0.2463242709636688</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>95.6678466796875</v>
+        <v>95.66785430908203</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-3.182326555252075</v>
+        <v>-3.182297229766846</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>29.53987693786621</v>
+        <v>29.53988075256348</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>95.19735717773438</v>
+        <v>95.19734954833984</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.9908583760261536</v>
+        <v>0.9908407330513</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>94.90865325927734</v>
+        <v>94.90867614746094</v>
       </c>
     </row>
     <row r="92" spans="1:6">
